--- a/biology/Histoire de la zoologie et de la botanique/Tom_Harrisson/Tom_Harrisson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Tom_Harrisson/Tom_Harrisson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tom Harnett Harrisson,, né le 26 septembre 1911 à Buenos Aires (Argentine) et mort le 16 janvier 1976 en Thaïlande, est un penseur britannique. Il est tour à tour ornithologue, explorateur, journaliste, soldat, guérillero, ethnologue, conservateur de musée, archéologue, réalisateur, et écrivain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tom Harnett Harrisson né le 26 septembre 1911 à Buenos Aires (Argentine) et mort le 16 janvier 1976 en Thaïlande, est un penseur britannique. Il est tour à tour ornithologue, explorateur, journaliste, soldat, guérillero, ethnologue, conservateur de musée, archéologue, réalisateur, et écrivain.
 Souvent décrit comme un anthropologue, ses études universitaires à l'Université de Cambridge, qu'il quitte ensuite pour Oxford, portaient sur les sciences naturelles. Il a mené des travaux de recherche ornithologique et anthropologique à Sarawak (1932) et dans les Nouvelles-Hébrides (1933-5), a passé une grande partie de sa vie à Bornéo (principalement à Sarawak) et a fini sa vie par des séjours successifs aux États-Unis, au Royaume-Uni et en France, avant de mourir dans un accident de la route en Thaïlande. Il est l'un des fondateurs de l'organisme d'observation sociale Mass-Observation en 1937.
 </t>
         </is>
